--- a/scalpel/typeinfer/evaluation/evaluation_outputs/httpie__httpie.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/httpie__httpie.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F200"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,7 +608,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>{'any', 'Path', None}</t>
+          <t>{None, 'any', 'Path'}</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -638,11 +638,7 @@
           <t>Path</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>any</t>
-        </is>
-      </c>
+      <c r="E6" s="2" t="inlineStr"/>
       <c r="F6" s="4" t="inlineStr">
         <is>
           <t>Loss</t>
@@ -6822,14 +6818,28 @@
     <row r="200">
       <c r="A200" s="2" t="inlineStr"/>
       <c r="B200" s="2" t="inlineStr"/>
-      <c r="C200" s="2" t="inlineStr"/>
-      <c r="D200" s="2" t="inlineStr"/>
-      <c r="E200" s="2" t="inlineStr">
+      <c r="C200" s="2" t="inlineStr">
+        <is>
+          <t>Scalpel Accuracy:</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="n">
+        <v>358.14</v>
+      </c>
+      <c r="E200" s="2" t="inlineStr"/>
+      <c r="F200" s="2" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="inlineStr"/>
+      <c r="B201" s="2" t="inlineStr"/>
+      <c r="C201" s="2" t="inlineStr"/>
+      <c r="D201" s="2" t="inlineStr"/>
+      <c r="E201" s="2" t="inlineStr">
         <is>
           <t>Accuracy over PyType</t>
         </is>
       </c>
-      <c r="F200" s="2" t="n">
+      <c r="F201" s="2" t="n">
         <v>9.300000000000001</v>
       </c>
     </row>

--- a/scalpel/typeinfer/evaluation/evaluation_outputs/httpie__httpie.xlsx
+++ b/scalpel/typeinfer/evaluation/evaluation_outputs/httpie__httpie.xlsx
@@ -608,7 +608,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>{None, 'any', 'Path'}</t>
+          <t>{None, 'Path', 'any'}</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
@@ -6818,16 +6818,16 @@
     <row r="200">
       <c r="A200" s="2" t="inlineStr"/>
       <c r="B200" s="2" t="inlineStr"/>
-      <c r="C200" s="2" t="inlineStr">
+      <c r="C200" s="2" t="inlineStr"/>
+      <c r="D200" s="2" t="inlineStr"/>
+      <c r="E200" s="2" t="inlineStr">
         <is>
           <t>Scalpel Accuracy:</t>
         </is>
       </c>
-      <c r="D200" s="2" t="n">
-        <v>358.14</v>
-      </c>
-      <c r="E200" s="2" t="inlineStr"/>
-      <c r="F200" s="2" t="inlineStr"/>
+      <c r="F200" s="2" t="n">
+        <v>78.17</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="inlineStr"/>
@@ -6836,7 +6836,7 @@
       <c r="D201" s="2" t="inlineStr"/>
       <c r="E201" s="2" t="inlineStr">
         <is>
-          <t>Accuracy over PyType</t>
+          <t>Accuracy vs PyType</t>
         </is>
       </c>
       <c r="F201" s="2" t="n">
